--- a/data/input_behavior/prep_activity_profile/input/Info_PersonType.xlsx
+++ b/data/input_behavior/prep_activity_profile/input/Info_PersonType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/data_prep/activity_profile/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rickm\Documents\Git\Flex\data\input_behavior\prep_activity_profile\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BF8D0-D3D8-4946-BB60-5A226DEE1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F0BDA5-0592-4B3A-AF63-C17AD4AA1645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1220" windowWidth="22380" windowHeight="16960" xr2:uid="{4CBF594C-D519-1C4D-901C-E6FD3B15B43A}"/>
+    <workbookView xWindow="4800" yWindow="710" windowWidth="14400" windowHeight="7270" xr2:uid="{4CBF594C-D519-1C4D-901C-E6FD3B15B43A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>part-time employed adult in a family with 2 children</t>
+  </si>
+  <si>
+    <t>retired non working adult</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,19 +413,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903ACE8F-4038-2D45-817B-37A9BF68D1BB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -430,7 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -438,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -446,12 +449,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -460,6 +471,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7a7714bb7e300047a743d6d70b64e471">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bed4c5aeb37c911367c1d98fc4032831" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -636,27 +667,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{802C89E8-F215-4186-8D21-AC5D8A84179F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -673,23 +703,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A26C5C-5A56-4A7C-BB76-118367EE6868}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B46992-9108-4E60-AE8D-D8BF3FC36C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>